--- a/interfaces/tema 5/Test Heurístico de Usabilidad de mi sitio web personal.xlsx
+++ b/interfaces/tema 5/Test Heurístico de Usabilidad de mi sitio web personal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Margarita\Documents\Dani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\tareas DAW\trabajos\interfaces\tema 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7807474A-F391-40C9-955D-05938B2D763C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B059CB62-D755-4346-A015-9637D29ECBCF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D68C8D82-FA26-4B6D-8D95-5AE797C8A519}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D68C8D82-FA26-4B6D-8D95-5AE797C8A519}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668743C2-4786-4517-BA76-A8767938C183}">
   <dimension ref="A2:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,8 +1464,8 @@
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" t="s">
-        <v>88</v>
+      <c r="D28" t="s">
+        <v>95</v>
       </c>
       <c r="E28" t="s">
         <v>102</v>
@@ -1475,8 +1475,8 @@
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" t="s">
-        <v>88</v>
+      <c r="D29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1494,8 +1494,8 @@
       <c r="A31" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C31" t="s">
-        <v>88</v>
+      <c r="D31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2057,11 +2057,11 @@
       </c>
       <c r="C83">
         <f>COUNTIF(C5:C82,"NO")-11</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D83">
         <f>COUNTIF(D5:D82,"NA")-11</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
